--- a/src/main/java/Configuration/XPath&TestData.xlsx
+++ b/src/main/java/Configuration/XPath&TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\ABDM_Automation_Script.v.24\src\main\java\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\ABDM_Automation_Script.v.31\src\main\java\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B9E8DA-7867-4A09-91A0-811461543139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63142DFB-3384-4D3D-A53F-B01DF87E5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{58B16572-EE6B-45BA-A1E3-D73DD5D73692}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>WebElement Name</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Healthcare1122@gmail</t>
   </si>
   <si>
-    <t>screenShotPath</t>
-  </si>
-  <si>
     <t>suggestionBaseURI</t>
   </si>
   <si>
@@ -233,15 +230,6 @@
   </si>
   <si>
     <t>//*[@id='root']/div/div/div/section[1]/div/div[4]/div[1]</t>
-  </si>
-  <si>
-    <t>ExtentReportLoc</t>
-  </si>
-  <si>
-    <t>C:\\\\Users\\\\USER\\\\eclipse-workspace\\\\ABDM_Automation_Script\\\\EXTENT_REPORT</t>
-  </si>
-  <si>
-    <t>C:\\Users\\USER\\eclipse-workspace\\ABDM_Automation_Script.v.24\\ScreenShots\\</t>
   </si>
 </sst>
 </file>
@@ -265,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,14 +301,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1749D8C-31E6-4943-B5FB-24D98E5B3337}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -683,22 +664,6 @@
         <v>35</v>
       </c>
       <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -733,18 +698,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -790,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -798,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -806,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -814,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -822,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -830,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -838,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -846,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -854,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -862,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -870,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -878,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -886,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Configuration/XPath&TestData.xlsx
+++ b/src/main/java/Configuration/XPath&TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\ABDM_Automation_Script.v.31\src\main\java\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\ABDM_Automation_Script.v.32\src\main\java\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63142DFB-3384-4D3D-A53F-B01DF87E5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615FEE58-A1E2-4377-BC52-76C927FEA287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{58B16572-EE6B-45BA-A1E3-D73DD5D73692}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>WebElement Name</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>//*[@id='root']/div/div/div/section[1]/div/div[4]/div[1]</t>
+  </si>
+  <si>
+    <t>dddddd</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -663,7 +666,9 @@
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
